--- a/data2.xlsx
+++ b/data2.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
